--- a/GerberandDrillTop/BOM/Copy of Bill of Materials-RPD_top.xlsx
+++ b/GerberandDrillTop/BOM/Copy of Bill of Materials-RPD_top.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11004" windowHeight="9912" xr2:uid="{489377E4-46FB-45D5-BAB4-F7D2109CDDDC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11004" windowHeight="9912" xr2:uid="{141B20D8-B3A6-494D-B8D5-34652DCAA89A}"/>
   </bookViews>
   <sheets>
     <sheet name="Copy of Bill of Materials-RPD_t" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FF8630-41C0-4FA2-A1A8-FE752B69E96D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F3F499-75D3-4D54-9C24-082BB64B50B5}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/GerberandDrillTop/BOM/Copy of Bill of Materials-RPD_top.xlsx
+++ b/GerberandDrillTop/BOM/Copy of Bill of Materials-RPD_top.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11004" windowHeight="9912" xr2:uid="{141B20D8-B3A6-494D-B8D5-34652DCAA89A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11004" windowHeight="9912" xr2:uid="{FE38DCFE-35E7-45F6-84FC-E98E3861B407}"/>
   </bookViews>
   <sheets>
     <sheet name="Copy of Bill of Materials-RPD_t" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F3F499-75D3-4D54-9C24-082BB64B50B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0670F5E-1355-4F83-8B69-A37832FDB62E}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/GerberandDrillTop/BOM/Copy of Bill of Materials-RPD_top.xlsx
+++ b/GerberandDrillTop/BOM/Copy of Bill of Materials-RPD_top.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11004" windowHeight="9912" xr2:uid="{FE38DCFE-35E7-45F6-84FC-E98E3861B407}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11004" windowHeight="9912" xr2:uid="{4C7D54DB-F81D-4BE3-9761-107733A523AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Copy of Bill of Materials-RPD_t" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="109">
   <si>
     <t>Comment</t>
   </si>
@@ -39,6 +39,12 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Supplier 1</t>
+  </si>
+  <si>
+    <t>Supplier Part Number 1</t>
+  </si>
+  <si>
     <t>Fuse 2</t>
   </si>
   <si>
@@ -51,6 +57,12 @@
     <t>Fuse Holder Mini ATC/ATO</t>
   </si>
   <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>36-3568-ND</t>
+  </si>
+  <si>
     <t>Cap</t>
   </si>
   <si>
@@ -63,6 +75,12 @@
     <t>C1206</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>587-5425-1-ND, [NoParam]</t>
+  </si>
+  <si>
     <t>Cap2</t>
   </si>
   <si>
@@ -72,12 +90,18 @@
     <t>C9, C10</t>
   </si>
   <si>
+    <t>478-8496-1-ND</t>
+  </si>
+  <si>
     <t>C11, C12</t>
   </si>
   <si>
     <t>1206</t>
   </si>
   <si>
+    <t>478-8468-1-ND</t>
+  </si>
+  <si>
     <t>Fuse 4A</t>
   </si>
   <si>
@@ -102,6 +126,9 @@
     <t>Diode</t>
   </si>
   <si>
+    <t>B160-FDICT-ND</t>
+  </si>
+  <si>
     <t>Switching diode</t>
   </si>
   <si>
@@ -111,6 +138,9 @@
     <t>1SS413</t>
   </si>
   <si>
+    <t>1SS413L3FCT-ND</t>
+  </si>
+  <si>
     <t>LED0</t>
   </si>
   <si>
@@ -120,6 +150,9 @@
     <t>D10</t>
   </si>
   <si>
+    <t>1516-1172-1-ND</t>
+  </si>
+  <si>
     <t>Fuse 5A</t>
   </si>
   <si>
@@ -150,6 +183,9 @@
     <t>PB114012</t>
   </si>
   <si>
+    <t>PB768-ND</t>
+  </si>
+  <si>
     <t>Inductor</t>
   </si>
   <si>
@@ -159,6 +195,9 @@
     <t>FILTER INDUCTOR</t>
   </si>
   <si>
+    <t>732-1242-1-ND</t>
+  </si>
+  <si>
     <t>Fuse 2A</t>
   </si>
   <si>
@@ -204,6 +243,9 @@
     <t>SOT23f</t>
   </si>
   <si>
+    <t>SSM3K329RLFCT-ND</t>
+  </si>
+  <si>
     <t>Resistor</t>
   </si>
   <si>
@@ -216,15 +258,24 @@
     <t>Res1</t>
   </si>
   <si>
+    <t>RG32P1.0MBCT-ND, RG3216P-1004-B-T1</t>
+  </si>
+  <si>
     <t>R2, R4</t>
   </si>
   <si>
+    <t>P100KBCCT-ND</t>
+  </si>
+  <si>
     <t>Blue LED Resistor</t>
   </si>
   <si>
     <t>R5</t>
   </si>
   <si>
+    <t>RNCF1206BKE453RCT-ND</t>
+  </si>
+  <si>
     <t>Red LED Resistor</t>
   </si>
   <si>
@@ -234,15 +285,18 @@
     <t>R10</t>
   </si>
   <si>
+    <t>RNCP1206FTD511RCT-ND</t>
+  </si>
+  <si>
     <t>SW-DP-PB</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
+    <t>CKN9865-ND</t>
+  </si>
+  <si>
     <t>AMS contactor side 7.5A</t>
   </si>
   <si>
@@ -264,6 +318,9 @@
     <t>Component_1</t>
   </si>
   <si>
+    <t>102-1716-ND</t>
+  </si>
+  <si>
     <t>5V LIN REG</t>
   </si>
   <si>
@@ -271,6 +328,9 @@
   </si>
   <si>
     <t>TO-220-3</t>
+  </si>
+  <si>
+    <t>LM2940CT-5.0/NOPB-ND</t>
   </si>
   <si>
     <t>MX150-20</t>
@@ -292,7 +352,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +365,14 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -345,18 +413,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -668,17 +739,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0670F5E-1355-4F83-8B69-A37832FDB62E}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C91747-2CA0-4FD6-BAE6-25A0CB5B89C1}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="13.88671875" customWidth="1"/>
+    <col min="1" max="8" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,529 +768,719 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="F2" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F15" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
       </c>
+      <c r="G27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" tooltip="Supplier" display="'36-3568-ND" xr:uid="{2633240B-3DC2-487B-9044-15C38AB3F6B0}"/>
+    <hyperlink ref="H3" tooltip="Supplier" display="'587-5425-1-ND, [NoParam]" xr:uid="{342B4225-23DF-4BC0-BA19-EBFD63174356}"/>
+    <hyperlink ref="H4" r:id="rId2" tooltip="Supplier" display="'478-8496-1-ND" xr:uid="{64F6DD22-2AC0-4468-BFD1-3857EF1CFA73}"/>
+    <hyperlink ref="H5" r:id="rId3" tooltip="Supplier" display="'478-8468-1-ND" xr:uid="{110ABAE7-1782-4B64-B424-465F6A1A3585}"/>
+    <hyperlink ref="H6" r:id="rId4" tooltip="Supplier" display="'36-3568-ND" xr:uid="{4A35B2D2-A3FF-4A6A-818B-5B2F62587CA7}"/>
+    <hyperlink ref="H7" r:id="rId5" tooltip="Supplier" display="'B160-FDICT-ND" xr:uid="{9E6CFDF6-1C03-45FB-81B2-A6B8F0B8AE4D}"/>
+    <hyperlink ref="H8" tooltip="Supplier" display="'1SS413L3FCT-ND" xr:uid="{4B1DA5FC-B18E-4703-B7A0-16385D4A1B8D}"/>
+    <hyperlink ref="H9" r:id="rId6" tooltip="Supplier" display="'1516-1172-1-ND" xr:uid="{A38FE6F4-9913-4F09-95CA-350543F4571B}"/>
+    <hyperlink ref="H10" r:id="rId7" tooltip="Supplier" display="'36-3568-ND" xr:uid="{7D0D34C5-4F65-482A-98A4-5C222BE282D2}"/>
+    <hyperlink ref="H11" r:id="rId8" tooltip="Supplier" display="'36-3568-ND" xr:uid="{F9F4B90C-778A-4277-8F2A-3878CD4218ED}"/>
+    <hyperlink ref="H12" r:id="rId9" tooltip="Supplier" display="'PB768-ND" xr:uid="{61670196-BE96-4839-9FAB-0D4E7EBBCBFB}"/>
+    <hyperlink ref="H13" r:id="rId10" tooltip="Supplier" display="'732-1242-1-ND" xr:uid="{82D6E5CF-051B-493A-BECC-74A571C58C38}"/>
+    <hyperlink ref="H14" r:id="rId11" tooltip="Supplier" display="'36-3568-ND" xr:uid="{D75AF475-4E0A-4A31-9115-5325BC50A5C8}"/>
+    <hyperlink ref="H15" tooltip="Supplier" display="'" xr:uid="{BA8FBB1E-EAF4-42E8-8F18-706CDD6563DA}"/>
+    <hyperlink ref="H16" tooltip="Supplier" display="'" xr:uid="{48417283-54C1-4872-8D21-0D1F0CE7DCC3}"/>
+    <hyperlink ref="H17" r:id="rId12" tooltip="Supplier" display="'SSM3K329RLFCT-ND" xr:uid="{11C150EB-6665-4AAD-A916-5D2F246B4FF7}"/>
+    <hyperlink ref="H18" tooltip="Supplier" display="'RG32P1.0MBCT-ND, RG3216P-1004-B-T1" xr:uid="{CC087E3C-D04C-4BC9-945A-962E2E53C05D}"/>
+    <hyperlink ref="H19" tooltip="Supplier" display="'P100KBCCT-ND" xr:uid="{A5A7B44F-B380-48D8-9E8D-6CC5EA74EC5D}"/>
+    <hyperlink ref="H20" r:id="rId13" tooltip="Supplier" display="'RNCF1206BKE453RCT-ND" xr:uid="{29BF0B9A-BBF0-4B42-9E1C-B7FEAA314E22}"/>
+    <hyperlink ref="H21" r:id="rId14" tooltip="Supplier" display="'RNCF1206BKE453RCT-ND" xr:uid="{DD1E17E6-521C-4A5A-925B-ABC4B1D1C848}"/>
+    <hyperlink ref="H22" r:id="rId15" tooltip="Supplier" display="'RNCP1206FTD511RCT-ND" xr:uid="{AF6AEC5B-672E-4647-A9D0-B00FEE72F491}"/>
+    <hyperlink ref="H23" tooltip="Supplier" display="'CKN9865-ND" xr:uid="{11D07AC2-3993-4C5B-B32B-55E874540308}"/>
+    <hyperlink ref="H24" r:id="rId16" tooltip="Supplier" display="'36-3568-ND" xr:uid="{4F8515B3-2935-47CE-BCCF-3D7D72D010B3}"/>
+    <hyperlink ref="H25" r:id="rId17" tooltip="Supplier" display="'102-1716-ND" xr:uid="{ECBFEC50-0AC1-46AD-8D33-3B34463C8FAE}"/>
+    <hyperlink ref="H26" r:id="rId18" tooltip="Supplier" display="'LM2940CT-5.0/NOPB-ND" xr:uid="{48760FF6-6855-4890-9E13-2ABB568773F5}"/>
+    <hyperlink ref="H27" tooltip="Supplier" display="'" xr:uid="{2022088D-38CC-4643-AEE3-24AFC1A53384}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>